--- a/input_data/admin_data/CHL/gpinter_CHL_2023.xlsx
+++ b/input_data/admin_data/CHL/gpinter_CHL_2023.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
   <si>
     <t>year</t>
   </si>
@@ -207,6 +207,66 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>country</t>
   </si>
   <si>
@@ -399,10 +459,130 @@
     <t/>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>component</t>
   </si>
   <si>
     <t>postax</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -653,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J84"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -661,31 +841,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>192</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>194</v>
+        <v>254</v>
       </c>
       <c r="G1" t="s">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="H1" t="s">
-        <v>196</v>
+        <v>256</v>
       </c>
       <c r="I1" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
       <c r="J1" t="s">
-        <v>198</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
@@ -693,31 +873,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D2">
-        <v>2302255.2872201102</v>
+        <v>5875212.5698461505</v>
       </c>
       <c r="E2">
-        <v>0.64000000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="F2">
-        <v>58278.3957376049</v>
+        <v>4667.1540389890297</v>
       </c>
       <c r="G2">
-        <v>0.99994623388526604</v>
+        <v>0.99999985378601697</v>
       </c>
       <c r="H2">
-        <v>6394809.7330505298</v>
+        <v>10491449.4835856</v>
       </c>
       <c r="I2">
-        <v>129583.604171738</v>
+        <v>69238.0918819238</v>
       </c>
       <c r="J2">
-        <v>109.728650765247</v>
+        <v>2247.93297927192</v>
       </c>
     </row>
     <row r="3">
@@ -725,29 +905,29 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="D3"/>
       <c r="E3">
-        <v>0.65000000000000002</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="F3">
-        <v>202827.704392599</v>
+        <v>134953.58100650401</v>
       </c>
       <c r="G3">
-        <v>0.99938337882357398</v>
+        <v>0.99988200597871002</v>
       </c>
       <c r="H3">
-        <v>6573816.1938756397</v>
+        <v>10680944.236161999</v>
       </c>
       <c r="I3">
-        <v>280058.38982126798</v>
+        <v>202985.027449872</v>
       </c>
       <c r="J3">
-        <v>32.410839601828599</v>
+        <v>79.145319127524601</v>
       </c>
     </row>
     <row r="4">
@@ -755,29 +935,29 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="D4"/>
       <c r="E4">
-        <v>0.66000000000000003</v>
+        <v>0.46000000000000002</v>
       </c>
       <c r="F4">
-        <v>359337.103502076</v>
+        <v>272187.59151459299</v>
       </c>
       <c r="G4">
-        <v>0.99816692645456095</v>
+        <v>0.99953651204970495</v>
       </c>
       <c r="H4">
-        <v>6758926.7175242901</v>
+        <v>10874980.5178048</v>
       </c>
       <c r="I4">
-        <v>442822.07448729197</v>
+        <v>343757.715311646</v>
       </c>
       <c r="J4">
-        <v>18.8094317331893</v>
+        <v>39.953990765305498</v>
       </c>
     </row>
     <row r="5">
@@ -785,29 +965,29 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="D5"/>
       <c r="E5">
-        <v>0.67000000000000004</v>
+        <v>0.46999999999999997</v>
       </c>
       <c r="F5">
-        <v>528465.41607311403</v>
+        <v>416523.93277280999</v>
       </c>
       <c r="G5">
-        <v>0.99624349912247701</v>
+        <v>0.99895141370436802</v>
       </c>
       <c r="H5">
-        <v>6950323.82791935</v>
+        <v>11073682.834833</v>
       </c>
       <c r="I5">
-        <v>618536.05904136295</v>
+        <v>491705.82275456301</v>
       </c>
       <c r="J5">
-        <v>13.1518990960002</v>
+        <v>26.585946121067298</v>
       </c>
     </row>
     <row r="6">
@@ -815,29 +995,29 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="D6"/>
       <c r="E6">
-        <v>0.68000000000000005</v>
+        <v>0.47999999999999998</v>
       </c>
       <c r="F6">
-        <v>710875.530230409</v>
+        <v>568106.877138632</v>
       </c>
       <c r="G6">
-        <v>0.99355684633260299</v>
+        <v>0.99811449790445606</v>
       </c>
       <c r="H6">
-        <v>7148192.1956967898</v>
+        <v>11277182.3927576</v>
       </c>
       <c r="I6">
-        <v>807862.26949873799</v>
+        <v>646967.56683749601</v>
       </c>
       <c r="J6">
-        <v>10.0554765099031</v>
+        <v>19.850459212106401</v>
       </c>
     </row>
     <row r="7">
@@ -845,29 +1025,29 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="D7"/>
       <c r="E7">
-        <v>0.68999999999999995</v>
+        <v>0.48999999999999999</v>
       </c>
       <c r="F7">
-        <v>907227.04148770496</v>
+        <v>727068.24066248001</v>
       </c>
       <c r="G7">
-        <v>0.99004784247024602</v>
+        <v>0.99701331635715695</v>
       </c>
       <c r="H7">
-        <v>7352718.9675096301</v>
+        <v>11485617.977579501</v>
       </c>
       <c r="I7">
-        <v>1011454.91551619</v>
+        <v>809667.63908263703</v>
       </c>
       <c r="J7">
-        <v>8.1046073708874093</v>
+        <v>15.797166394057101</v>
       </c>
     </row>
     <row r="8">
@@ -875,29 +1055,29 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="D8"/>
       <c r="E8">
-        <v>0.69999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
-        <v>1118167.07548983</v>
+        <v>893525.21222170803</v>
       </c>
       <c r="G8">
-        <v>0.98565452031726497</v>
+        <v>0.99563520853644905</v>
       </c>
       <c r="H8">
-        <v>7564094.4359094203</v>
+        <v>11699136.9843495</v>
       </c>
       <c r="I8">
-        <v>1229950.26532515</v>
+        <v>979914.93583003304</v>
       </c>
       <c r="J8">
-        <v>6.7647264900872397</v>
+        <v>13.0932365694082</v>
       </c>
     </row>
     <row r="9">
@@ -905,29 +1085,29 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="D9"/>
       <c r="E9">
-        <v>0.70999999999999996</v>
+        <v>0.51000000000000001</v>
       </c>
       <c r="F9">
-        <v>1344318.9548913699</v>
+        <v>1067577.9835509199</v>
       </c>
       <c r="G9">
-        <v>0.98031214898185004</v>
+        <v>0.99396732856754499</v>
       </c>
       <c r="H9">
-        <v>7782513.20041232</v>
+        <v>11917896.617992699</v>
       </c>
       <c r="I9">
-        <v>1463954.07515161</v>
+        <v>1157800.0850852099</v>
       </c>
       <c r="J9">
-        <v>5.7891865409583696</v>
+        <v>11.163490444372099</v>
       </c>
     </row>
     <row r="10">
@@ -935,29 +1115,29 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="D10"/>
       <c r="E10">
-        <v>0.71999999999999997</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F10">
-        <v>1586268.3219548201</v>
+        <v>1249307.1716317299</v>
       </c>
       <c r="G10">
-        <v>0.97395336642946295</v>
+        <v>0.99199667632080302</v>
       </c>
       <c r="H10">
-        <v>8008176.0263144895</v>
+        <v>12142065.2957616</v>
       </c>
       <c r="I10">
-        <v>1714026.25646429</v>
+        <v>1343392.76217539</v>
       </c>
       <c r="J10">
-        <v>5.0484372129714403</v>
+        <v>9.7190391374307392</v>
       </c>
     </row>
     <row r="11">
@@ -965,29 +1145,29 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="D11"/>
       <c r="E11">
-        <v>0.72999999999999998</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="F11">
-        <v>1844546.2711602601</v>
+        <v>1438771.02666738</v>
       </c>
       <c r="G11">
-        <v>0.96650837861260797</v>
+        <v>0.98971013307457201</v>
       </c>
       <c r="H11">
-        <v>8241292.6844570898</v>
+        <v>12371824.2858379</v>
       </c>
       <c r="I11">
-        <v>1980662.30489235</v>
+        <v>1536738.7886411101</v>
       </c>
       <c r="J11">
-        <v>4.4679240707109704</v>
+        <v>8.5988833918172407</v>
       </c>
     </row>
     <row r="12">
@@ -995,29 +1175,29 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="D12"/>
       <c r="E12">
-        <v>0.73999999999999999</v>
+        <v>0.54000000000000004</v>
       </c>
       <c r="F12">
-        <v>2119608.9845905602</v>
+        <v>1636002.4214311901</v>
       </c>
       <c r="G12">
-        <v>0.95790523926534699</v>
+        <v>0.98709450211590999</v>
       </c>
       <c r="H12">
-        <v>8482086.1605941895</v>
+        <v>12607369.6227335</v>
       </c>
       <c r="I12">
-        <v>2264270.9517749301</v>
+        <v>1737857.01181871</v>
       </c>
       <c r="J12">
-        <v>4.0017221205696298</v>
+        <v>7.70620474491992</v>
       </c>
     </row>
     <row r="13">
@@ -1025,29 +1205,29 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="D13"/>
       <c r="E13">
-        <v>0.75</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F13">
-        <v>2411813.2992137</v>
+        <v>1841005.6213977099</v>
       </c>
       <c r="G13">
-        <v>0.94807022676980002</v>
+        <v>0.98413655465246297</v>
       </c>
       <c r="H13">
-        <v>8730798.7689469606</v>
+        <v>12848914.347420501</v>
       </c>
       <c r="I13">
-        <v>2565147.4362169001</v>
+        <v>1946735.96697462</v>
       </c>
       <c r="J13">
-        <v>3.62001435674701</v>
+        <v>6.9792912080656802</v>
       </c>
     </row>
     <row r="14">
@@ -1055,29 +1235,29 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>181</v>
       </c>
       <c r="D14"/>
       <c r="E14">
-        <v>0.76000000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="F14">
-        <v>2721387.5734940502</v>
+        <v>2053752.8400837299</v>
       </c>
       <c r="G14">
-        <v>0.93692833711726597</v>
+        <v>0.98082308140561303</v>
       </c>
       <c r="H14">
-        <v>8987700.9078107197</v>
+        <v>13096691.128794299</v>
       </c>
       <c r="I14">
-        <v>2883441.7377058901</v>
+        <v>2163330.3296022001</v>
       </c>
       <c r="J14">
-        <v>3.3026170161684201</v>
+        <v>6.3769558211592496</v>
       </c>
     </row>
     <row r="15">
@@ -1085,29 +1265,29 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>142</v>
+        <v>182</v>
       </c>
       <c r="D15"/>
       <c r="E15">
-        <v>0.77000000000000002</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F15">
-        <v>3048397.16838182</v>
+        <v>2274180.5908987201</v>
       </c>
       <c r="G15">
-        <v>0.92440391485309803</v>
+        <v>0.97714095024204395</v>
       </c>
       <c r="H15">
-        <v>9253103.4804239701</v>
+        <v>13350955.333426701</v>
       </c>
       <c r="I15">
-        <v>3219121.0666436502</v>
+        <v>2387557.17366433</v>
       </c>
       <c r="J15">
-        <v>3.0353995786368602</v>
+        <v>5.8706662904684199</v>
       </c>
     </row>
     <row r="16">
@@ -1115,29 +1295,29 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>143</v>
+        <v>183</v>
       </c>
       <c r="D16"/>
       <c r="E16">
-        <v>0.78000000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F16">
-        <v>3392703.8276128899</v>
+        <v>2502185.8561413302</v>
       </c>
       <c r="G16">
-        <v>0.91042144694646199</v>
+        <v>0.97307717017403705</v>
       </c>
       <c r="H16">
-        <v>9527375.40832307</v>
+        <v>13611988.6229448</v>
       </c>
       <c r="I16">
-        <v>3571925.90008312</v>
+        <v>2619292.0623825798</v>
       </c>
       <c r="J16">
-        <v>2.8081954371556601</v>
+        <v>5.4400389921219103</v>
       </c>
     </row>
     <row r="17">
@@ -1145,29 +1325,29 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="D17"/>
       <c r="E17">
-        <v>0.79000000000000004</v>
+        <v>0.58999999999999997</v>
       </c>
       <c r="F17">
-        <v>3753918.2570526698</v>
+        <v>2737622.1064140601</v>
       </c>
       <c r="G17">
-        <v>0.89490654762182598</v>
+        <v>0.96861896201349196</v>
       </c>
       <c r="H17">
-        <v>9810968.2420487907</v>
+        <v>13880103.173202399</v>
       </c>
       <c r="I17">
-        <v>3941318.9027671502</v>
+        <v>2858365.01298925</v>
       </c>
       <c r="J17">
-        <v>2.6135274052961699</v>
+        <v>5.0701311699238101</v>
       </c>
     </row>
     <row r="18">
@@ -1175,29 +1355,29 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="D18"/>
       <c r="E18">
-        <v>0.80000000000000004</v>
+        <v>0.59999999999999998</v>
       </c>
       <c r="F18">
-        <v>4131345.3022968401</v>
+        <v>2980295.2207895499</v>
       </c>
       <c r="G18">
-        <v>0.87778716505532495</v>
+        <v>0.96375383589421004</v>
       </c>
       <c r="H18">
-        <v>10104450.7090129</v>
+        <v>14155646.627207801</v>
       </c>
       <c r="I18">
-        <v>4326426.2429456897</v>
+        <v>3104556.3966836999</v>
       </c>
       <c r="J18">
-        <v>2.44580154154513</v>
+        <v>4.7497464440645603</v>
       </c>
     </row>
     <row r="19">
@@ -1205,29 +1385,29 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="D19"/>
       <c r="E19">
-        <v>0.81000000000000005</v>
+        <v>0.60999999999999999</v>
       </c>
       <c r="F19">
-        <v>4523921.3785258597</v>
+        <v>3229959.3811086598</v>
       </c>
       <c r="G19">
-        <v>0.85899504296981199</v>
+        <v>0.95846967577272302</v>
       </c>
       <c r="H19">
-        <v>10408557.2598585</v>
+        <v>14439007.9151699</v>
       </c>
       <c r="I19">
-        <v>4725971.1947247703</v>
+        <v>3357592.8619974898</v>
       </c>
       <c r="J19">
-        <v>2.30078208460161</v>
+        <v>4.4703373050511299</v>
       </c>
     </row>
     <row r="20">
@@ -1235,29 +1415,29 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="D20"/>
       <c r="E20">
-        <v>0.81999999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="F20">
-        <v>4930144.3445413196</v>
+        <v>3486313.04496965</v>
       </c>
       <c r="G20">
-        <v>0.838467470632553</v>
+        <v>0.95275483086782597</v>
       </c>
       <c r="H20">
-        <v>10724256.4856993</v>
+        <v>14730624.100779699</v>
       </c>
       <c r="I20">
-        <v>5138200.6901993696</v>
+        <v>3617143.4062042302</v>
       </c>
       <c r="J20">
-        <v>2.17524188669511</v>
+        <v>4.2252729203518697</v>
       </c>
     </row>
     <row r="21">
@@ -1265,29 +1445,29 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C21" t="s">
-        <v>148</v>
+        <v>188</v>
       </c>
       <c r="D21"/>
       <c r="E21">
-        <v>0.82999999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="F21">
-        <v>5347997.0710255299</v>
+        <v>3748995.1442853799</v>
       </c>
       <c r="G21">
-        <v>0.81614935187864401</v>
+        <v>0.94659821378682196</v>
       </c>
       <c r="H21">
-        <v>11052848.003081599</v>
+        <v>15030988.4438763</v>
       </c>
       <c r="I21">
-        <v>5560806.9777516797</v>
+        <v>3882815.7689663698</v>
       </c>
       <c r="J21">
-        <v>2.0667266373356701</v>
+        <v>4.0093379333361296</v>
       </c>
     </row>
     <row r="22">
@@ -1295,29 +1475,29 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="C22" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="D22"/>
       <c r="E22">
-        <v>0.83999999999999997</v>
+        <v>0.64000000000000001</v>
       </c>
       <c r="F22">
-        <v>5774867.9835107103</v>
+        <v>4017581.71394759</v>
       </c>
       <c r="G22">
-        <v>0.79199561441686095</v>
+        <v>0.93998940479003001</v>
       </c>
       <c r="H22">
-        <v>11396100.5671647</v>
+        <v>15340659.907068299</v>
       </c>
       <c r="I22">
-        <v>5990849.4025948504</v>
+        <v>4154153.3901999402</v>
       </c>
       <c r="J22">
-        <v>1.9733958593866801</v>
+        <v>3.8183815537120398</v>
       </c>
     </row>
     <row r="23">
@@ -1325,29 +1505,29 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="C23" t="s">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="D23"/>
       <c r="E23">
-        <v>0.84999999999999998</v>
+        <v>0.65000000000000002</v>
       </c>
       <c r="F23">
-        <v>6207475.7542157499</v>
+        <v>4291583.2341245897</v>
       </c>
       <c r="G23">
-        <v>0.76597395888695397</v>
+        <v>0.93291876123319895</v>
       </c>
       <c r="H23">
-        <v>11756450.644802701</v>
+        <v>15660274.3789788</v>
       </c>
       <c r="I23">
-        <v>6424686.8484566696</v>
+        <v>4430633.2671294296</v>
       </c>
       <c r="J23">
-        <v>1.8939180933277799</v>
+        <v>3.6490669118231001</v>
       </c>
     </row>
     <row r="24">
@@ -1355,29 +1535,29 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C24" t="s">
-        <v>151</v>
+        <v>191</v>
       </c>
       <c r="D24"/>
       <c r="E24">
-        <v>0.85999999999999999</v>
+        <v>0.66000000000000003</v>
       </c>
       <c r="F24">
-        <v>6641812.8934169197</v>
+        <v>4570443.07854647</v>
       </c>
       <c r="G24">
-        <v>0.73806790136101297</v>
+        <v>0.92537753065735695</v>
       </c>
       <c r="H24">
-        <v>12137290.915970299</v>
+        <v>15990557.941091999</v>
       </c>
       <c r="I24">
-        <v>6857942.2714911802</v>
+        <v>4711665.1742359204</v>
       </c>
       <c r="J24">
-        <v>1.8274063287751301</v>
+        <v>3.4986887849345001</v>
       </c>
     </row>
     <row r="25">
@@ -1385,29 +1565,29 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>152</v>
+        <v>192</v>
       </c>
       <c r="D25"/>
       <c r="E25">
-        <v>0.87</v>
+        <v>0.67000000000000004</v>
       </c>
       <c r="F25">
-        <v>7073138.1169164795</v>
+        <v>4853537.6120642498</v>
       </c>
       <c r="G25">
-        <v>0.70827996989416098</v>
+        <v>0.91735796520636703</v>
       </c>
       <c r="H25">
-        <v>12543394.6578533</v>
+        <v>16332342.570390699</v>
       </c>
       <c r="I25">
-        <v>7285542.9109854698</v>
+        <v>4996592.8888879297</v>
       </c>
       <c r="J25">
-        <v>1.7733846632874199</v>
+        <v>3.3650388388448902</v>
       </c>
     </row>
     <row r="26">
@@ -1415,29 +1595,29 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>153</v>
+        <v>193</v>
       </c>
       <c r="D26"/>
       <c r="E26">
-        <v>0.88</v>
+        <v>0.68000000000000005</v>
       </c>
       <c r="F26">
-        <v>7496078.6226932099</v>
+        <v>5140178.6916242</v>
       </c>
       <c r="G26">
-        <v>0.67663472641735001</v>
+        <v>0.90885343395837004</v>
       </c>
       <c r="H26">
-        <v>12981548.9700923</v>
+        <v>16686584.7479377</v>
       </c>
       <c r="I26">
-        <v>7701926.60722881</v>
+        <v>5284698.3166060401</v>
       </c>
       <c r="J26">
-        <v>1.7317786570157701</v>
+        <v>3.24630440866347</v>
       </c>
     </row>
     <row r="27">
@@ -1445,29 +1625,29 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>194</v>
       </c>
       <c r="D27"/>
       <c r="E27">
-        <v>0.89000000000000001</v>
+        <v>0.68999999999999995</v>
       </c>
       <c r="F27">
-        <v>7904970.7768080104</v>
+        <v>5429619.6216334999</v>
       </c>
       <c r="G27">
-        <v>0.64318089247468302</v>
+        <v>0.89985852823575996</v>
       </c>
       <c r="H27">
-        <v>13461514.6394435</v>
+        <v>17054387.536045101</v>
       </c>
       <c r="I27">
-        <v>8101608.4184494801</v>
+        <v>5575209.7653238103</v>
       </c>
       <c r="J27">
-        <v>1.7029176981827201</v>
+        <v>3.14099121568194</v>
       </c>
     </row>
     <row r="28">
@@ -1475,29 +1655,29 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="D28"/>
       <c r="E28">
-        <v>0.90000000000000002</v>
+        <v>0.69999999999999996</v>
       </c>
       <c r="F28">
-        <v>8294720.2484742599</v>
+        <v>5721066.0360335298</v>
       </c>
       <c r="G28">
-        <v>0.60799101382212095</v>
+        <v>0.89036915283181695</v>
       </c>
       <c r="H28">
-        <v>13997505.2615429</v>
+        <v>17437026.795069199</v>
       </c>
       <c r="I28">
-        <v>8480544.2503568009</v>
+        <v>5867316.1242107498</v>
       </c>
       <c r="J28">
-        <v>1.6875198731527601</v>
+        <v>3.0478632278047302</v>
       </c>
     </row>
     <row r="29">
@@ -1505,29 +1685,29 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="D29"/>
       <c r="E29">
-        <v>0.91000000000000003</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="F29">
-        <v>8662828.21942145</v>
+        <v>6013693.78264389</v>
       </c>
       <c r="G29">
-        <v>0.57115520200997105</v>
+        <v>0.88038259310404798</v>
       </c>
       <c r="H29">
-        <v>14610500.929452499</v>
+        <v>17835982.335443601</v>
       </c>
       <c r="I29">
-        <v>8839331.1491937097</v>
+        <v>6160189.43155069</v>
       </c>
       <c r="J29">
-        <v>1.68657401017104</v>
+        <v>2.96589466974857</v>
       </c>
     </row>
     <row r="30">
@@ -1535,29 +1715,29 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="D30"/>
       <c r="E30">
-        <v>0.92000000000000004</v>
+        <v>0.71999999999999997</v>
       </c>
       <c r="F30">
-        <v>9014165.3394188695</v>
+        <v>6306676.7568961298</v>
       </c>
       <c r="G30">
-        <v>0.53276097527820399</v>
+        <v>0.86989754365550997</v>
       </c>
       <c r="H30">
-        <v>15331897.1519849</v>
+        <v>18252974.9391541</v>
       </c>
       <c r="I30">
-        <v>9190892.6968657691</v>
+        <v>6453019.3738762103</v>
       </c>
       <c r="J30">
-        <v>1.70086708804182</v>
+        <v>2.89423029635934</v>
       </c>
     </row>
     <row r="31">
@@ -1565,29 +1745,29 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="D31"/>
       <c r="E31">
-        <v>0.93000000000000005</v>
+        <v>0.72999999999999998</v>
       </c>
       <c r="F31">
-        <v>9372651.1959110592</v>
+        <v>6599228.9031823697</v>
       </c>
       <c r="G31">
-        <v>0.49283971742341898</v>
+        <v>0.85891407829632305</v>
       </c>
       <c r="H31">
-        <v>16209183.5027162</v>
+        <v>18690010.330460701</v>
       </c>
       <c r="I31">
-        <v>9579951.4657841697</v>
+        <v>6745064.8096981896</v>
       </c>
       <c r="J31">
-        <v>1.7294128591692</v>
+        <v>2.8321506352731198</v>
       </c>
     </row>
     <row r="32">
@@ -1595,29 +1775,29 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="D32"/>
       <c r="E32">
-        <v>0.93999999999999995</v>
+        <v>0.73999999999999999</v>
       </c>
       <c r="F32">
-        <v>9811719.6165571604</v>
+        <v>6890666.4740932696</v>
       </c>
       <c r="G32">
-        <v>0.45122855675430101</v>
+        <v>0.84743353230839402</v>
       </c>
       <c r="H32">
-        <v>17314055.508871499</v>
+        <v>19149431.312028401</v>
       </c>
       <c r="I32">
-        <v>10136313.0451042</v>
+        <v>7035729.7075127903</v>
       </c>
       <c r="J32">
-        <v>1.76463007357591</v>
+        <v>2.77903906451201</v>
       </c>
     </row>
     <row r="33">
@@ -1625,29 +1805,29 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="D33"/>
       <c r="E33">
-        <v>0.94999999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F33">
-        <v>10540536.4048784</v>
+        <v>7180499.4229295002</v>
       </c>
       <c r="G33">
-        <v>0.40720080231120698</v>
+        <v>0.83545825545862895</v>
       </c>
       <c r="H33">
-        <v>18749604.001625001</v>
+        <v>19633979.376209099</v>
       </c>
       <c r="I33">
-        <v>11173446.6284224</v>
+        <v>7324674.3233173201</v>
       </c>
       <c r="J33">
-        <v>1.77880928269905</v>
+        <v>2.7343473231836599</v>
       </c>
     </row>
     <row r="34">
@@ -1655,29 +1835,29 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="D34"/>
       <c r="E34">
-        <v>0.95999999999999996</v>
+        <v>0.76000000000000001</v>
       </c>
       <c r="F34">
-        <v>11939733.093104601</v>
+        <v>7468564.99174878</v>
       </c>
       <c r="G34">
-        <v>0.35866818870208</v>
+        <v>0.82299117578067704</v>
       </c>
       <c r="H34">
-        <v>20643643.344925601</v>
+        <v>20146867.086746201</v>
       </c>
       <c r="I34">
-        <v>12992797.697884999</v>
+        <v>7611977.6369221201</v>
       </c>
       <c r="J34">
-        <v>1.7289870036414501</v>
+        <v>2.6975553013201798</v>
       </c>
     </row>
     <row r="35">
@@ -1685,29 +1865,29 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="D35"/>
       <c r="E35">
-        <v>0.96999999999999997</v>
+        <v>0.77000000000000002</v>
       </c>
       <c r="F35">
-        <v>14192962.4177993</v>
+        <v>7755222.9189433102</v>
       </c>
       <c r="G35">
-        <v>0.30223310189824698</v>
+        <v>0.81003508687933301</v>
       </c>
       <c r="H35">
-        <v>23193925.227272399</v>
+        <v>20691862.280216798</v>
       </c>
       <c r="I35">
-        <v>15654169.316427501</v>
+        <v>7898375.00434421</v>
       </c>
       <c r="J35">
-        <v>1.63418492521231</v>
+        <v>2.6681196010077</v>
       </c>
     </row>
     <row r="36">
@@ -1715,29 +1895,29 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="D36"/>
       <c r="E36">
-        <v>0.97999999999999998</v>
+        <v>0.78000000000000003</v>
       </c>
       <c r="F36">
-        <v>17206861.403282199</v>
+        <v>8041641.4623018503</v>
       </c>
       <c r="G36">
-        <v>0.23423816926273799</v>
+        <v>0.79659153073486</v>
       </c>
       <c r="H36">
-        <v>26963803.182694901</v>
+        <v>21273384.429120101</v>
       </c>
       <c r="I36">
-        <v>18876477.787633501</v>
+        <v>8185607.2485628501</v>
       </c>
       <c r="J36">
-        <v>1.5670378548845401</v>
+        <v>2.64540324619631</v>
       </c>
     </row>
     <row r="37">
@@ -1745,29 +1925,29 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="D37"/>
       <c r="E37">
-        <v>0.98999999999999999</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="F37">
-        <v>20838702.1244356</v>
+        <v>8330218.6090010302</v>
       </c>
       <c r="G37">
-        <v>0.15224692401544801</v>
+        <v>0.78265908633178505</v>
       </c>
       <c r="H37">
-        <v>35051128.577756301</v>
+        <v>21896611.913908601</v>
       </c>
       <c r="I37">
-        <v>21172780.5372045</v>
+        <v>8476936.5696089603</v>
       </c>
       <c r="J37">
-        <v>1.6820207116764401</v>
+        <v>2.62857590438847</v>
       </c>
     </row>
     <row r="38">
@@ -1775,29 +1955,29 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
       <c r="D38"/>
       <c r="E38">
-        <v>0.99099999999999999</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="F38">
-        <v>21547310.595261201</v>
+        <v>8625206.66758563</v>
       </c>
       <c r="G38">
-        <v>0.14305038501530501</v>
+        <v>0.76823078017463198</v>
       </c>
       <c r="H38">
-        <v>36593167.2489288</v>
+        <v>22567595.681123599</v>
       </c>
       <c r="I38">
-        <v>22033321.924462099</v>
+        <v>8777914.9018648993</v>
       </c>
       <c r="J38">
-        <v>1.6982707464650599</v>
+        <v>2.61647013815156</v>
       </c>
     </row>
     <row r="39">
@@ -1805,29 +1985,29 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D39"/>
       <c r="E39">
-        <v>0.99199999999999999</v>
+        <v>0.81000000000000005</v>
       </c>
       <c r="F39">
-        <v>22594904.424545102</v>
+        <v>8933646.2280126493</v>
       </c>
       <c r="G39">
-        <v>0.13348006410138699</v>
+        <v>0.75329018900876299</v>
       </c>
       <c r="H39">
-        <v>38413147.914487101</v>
+        <v>23293368.353716101</v>
       </c>
       <c r="I39">
-        <v>23362730.8833321</v>
+        <v>9097538.5765336994</v>
       </c>
       <c r="J39">
-        <v>1.7000801239397401</v>
+        <v>2.6073752820742602</v>
       </c>
     </row>
     <row r="40">
@@ -1835,29 +2015,29 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="C40" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="D40"/>
       <c r="E40">
-        <v>0.99299999999999999</v>
+        <v>0.81999999999999995</v>
       </c>
       <c r="F40">
-        <v>24255815.836477298</v>
+        <v>9266775.9913612101</v>
       </c>
       <c r="G40">
-        <v>0.12333230550440601</v>
+        <v>0.73780557722939399</v>
       </c>
       <c r="H40">
-        <v>40563207.490366399</v>
+        <v>24082025.563559599</v>
       </c>
       <c r="I40">
-        <v>25386771.696009502</v>
+        <v>9450000.7114128601</v>
       </c>
       <c r="J40">
-        <v>1.67230852030815</v>
+        <v>2.59874907799753</v>
       </c>
     </row>
     <row r="41">
@@ -1865,29 +2045,29 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="D41"/>
       <c r="E41">
-        <v>0.99399999999999999</v>
+        <v>0.82999999999999996</v>
       </c>
       <c r="F41">
-        <v>26621356.178789198</v>
+        <v>9642182.6125588194</v>
       </c>
       <c r="G41">
-        <v>0.112305391227379</v>
+        <v>0.72172105160743805</v>
       </c>
       <c r="H41">
-        <v>43092613.456092499</v>
+        <v>24942732.907803498</v>
       </c>
       <c r="I41">
-        <v>28008513.905854899</v>
+        <v>9857378.2280376293</v>
       </c>
       <c r="J41">
-        <v>1.61872344769674</v>
+        <v>2.58683473545875</v>
       </c>
     </row>
     <row r="42">
@@ -1895,29 +2075,29 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="D42"/>
       <c r="E42">
-        <v>0.995</v>
+        <v>0.83999999999999997</v>
       </c>
       <c r="F42">
-        <v>29434567.663415499</v>
+        <v>10087112.899787501</v>
       </c>
       <c r="G42">
-        <v>0.100139705666211</v>
+        <v>0.70494314253461599</v>
       </c>
       <c r="H42">
-        <v>46109433.366140097</v>
+        <v>25885567.575288899</v>
       </c>
       <c r="I42">
-        <v>30828979.8670233</v>
+        <v>10353723.5174558</v>
       </c>
       <c r="J42">
-        <v>1.56650622130421</v>
+        <v>2.5662018292502999</v>
       </c>
     </row>
     <row r="43">
@@ -1925,29 +2105,29 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="D43"/>
       <c r="E43">
-        <v>0.996</v>
+        <v>0.84999999999999998</v>
       </c>
       <c r="F43">
-        <v>32141850.865410399</v>
+        <v>10642921.7555729</v>
       </c>
       <c r="G43">
-        <v>0.0867489318288545</v>
+        <v>0.687320420983068</v>
       </c>
       <c r="H43">
-        <v>49929546.740919203</v>
+        <v>26921023.845811099</v>
       </c>
       <c r="I43">
-        <v>33158890.897160999</v>
+        <v>10980449.893148899</v>
       </c>
       <c r="J43">
-        <v>1.5534123081459199</v>
+        <v>2.5294768169947899</v>
       </c>
     </row>
     <row r="44">
@@ -1955,29 +2135,29 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="D44"/>
       <c r="E44">
-        <v>0.997</v>
+        <v>0.85999999999999999</v>
       </c>
       <c r="F44">
-        <v>33994743.843323097</v>
+        <v>11342494.6238697</v>
       </c>
       <c r="G44">
-        <v>0.072346145534377404</v>
+        <v>0.66863096972898906</v>
       </c>
       <c r="H44">
-        <v>55519765.355505303</v>
+        <v>28059636.271001302</v>
       </c>
       <c r="I44">
-        <v>34975232.367081203</v>
+        <v>11753545.2305142</v>
       </c>
       <c r="J44">
-        <v>1.63318675414611</v>
+        <v>2.4738505242004898</v>
       </c>
     </row>
     <row r="45">
@@ -1985,29 +2165,29 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="D45"/>
       <c r="E45">
-        <v>0.998</v>
+        <v>0.87</v>
       </c>
       <c r="F45">
-        <v>36972471.822098002</v>
+        <v>12188914.849220701</v>
       </c>
       <c r="G45">
-        <v>0.057154419160143501</v>
+        <v>0.64862565912824899</v>
       </c>
       <c r="H45">
-        <v>65792031.849717297</v>
+        <v>29313950.966423299</v>
       </c>
       <c r="I45">
-        <v>44865426.266104698</v>
+        <v>12671946.5914237</v>
       </c>
       <c r="J45">
-        <v>1.77948696982695</v>
+        <v>2.4049680655778398</v>
       </c>
     </row>
     <row r="46">
@@ -2015,29 +2195,29 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D46"/>
       <c r="E46">
-        <v>0.999</v>
+        <v>0.88</v>
       </c>
       <c r="F46">
-        <v>51333159.345769502</v>
+        <v>13178085.8244323</v>
       </c>
       <c r="G46">
-        <v>0.037666820840724299</v>
+        <v>0.62705716872764505</v>
       </c>
       <c r="H46">
-        <v>86718637.433329999</v>
+        <v>30700784.664340001</v>
       </c>
       <c r="I46">
-        <v>51527154.454691298</v>
+        <v>13728194.272097901</v>
       </c>
       <c r="J46">
-        <v>1.68932983160478</v>
+        <v>2.3296846805641902</v>
       </c>
     </row>
     <row r="47">
@@ -2045,29 +2225,29 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="D47"/>
       <c r="E47">
-        <v>0.99909999999999999</v>
+        <v>0.89000000000000001</v>
       </c>
       <c r="F47">
-        <v>51857135.818341799</v>
+        <v>14298873.115648501</v>
       </c>
       <c r="G47">
-        <v>0.035428704384190698</v>
+        <v>0.60369087498270702</v>
       </c>
       <c r="H47">
-        <v>90628802.208733603</v>
+        <v>32243747.427271102</v>
       </c>
       <c r="I47">
-        <v>52846327.923038699</v>
+        <v>14906963.410855699</v>
       </c>
       <c r="J47">
-        <v>1.74766308972811</v>
+        <v>2.2549852122251401</v>
       </c>
     </row>
     <row r="48">
@@ -2075,29 +2255,29 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="D48"/>
       <c r="E48">
-        <v>0.99919999999999998</v>
+        <v>0.90000000000000002</v>
       </c>
       <c r="F48">
-        <v>54443720.881318197</v>
+        <v>15531608.056489</v>
       </c>
       <c r="G48">
-        <v>0.033133288744735603</v>
+        <v>0.57831823827614004</v>
       </c>
       <c r="H48">
-        <v>95351611.494444996</v>
+        <v>33977425.828912601</v>
       </c>
       <c r="I48">
-        <v>57429321.715311602</v>
+        <v>16184404.1405525</v>
       </c>
       <c r="J48">
-        <v>1.7513794052082099</v>
+        <v>2.1876309075876499</v>
       </c>
     </row>
     <row r="49">
@@ -2105,29 +2285,29 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="C49" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="D49"/>
       <c r="E49">
-        <v>0.99929999999999997</v>
+        <v>0.91000000000000003</v>
       </c>
       <c r="F49">
-        <v>60794717.647786602</v>
+        <v>16848718.485080201</v>
       </c>
       <c r="G49">
-        <v>0.030638807701121699</v>
+        <v>0.55077131304041904</v>
       </c>
       <c r="H49">
-        <v>100769081.462892</v>
+        <v>35954428.238730401</v>
       </c>
       <c r="I49">
-        <v>63967053.2544953</v>
+        <v>17531634.862975098</v>
       </c>
       <c r="J49">
-        <v>1.6575302158107901</v>
+        <v>2.1339562573004298</v>
       </c>
     </row>
     <row r="50">
@@ -2135,29 +2315,29 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="D50"/>
       <c r="E50">
-        <v>0.99939999999999996</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="F50">
-        <v>66611704.126467101</v>
+        <v>18222380.181965001</v>
       </c>
       <c r="G50">
-        <v>0.027860355910411399</v>
+        <v>0.52093131209653099</v>
       </c>
       <c r="H50">
-        <v>106902752.830957</v>
+        <v>38257277.4106998</v>
       </c>
       <c r="I50">
-        <v>67987585.981343299</v>
+        <v>18931149.450376999</v>
       </c>
       <c r="J50">
-        <v>1.6048644038290001</v>
+        <v>2.0994665366801901</v>
       </c>
     </row>
     <row r="51">
@@ -2165,29 +2345,29 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C51" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="D51"/>
       <c r="E51">
-        <v>0.99950000000000006</v>
+        <v>0.93000000000000005</v>
       </c>
       <c r="F51">
-        <v>69161782.591957897</v>
+        <v>19653572.115945499</v>
       </c>
       <c r="G51">
-        <v>0.024907269588545399</v>
+        <v>0.48870924485161299</v>
       </c>
       <c r="H51">
-        <v>114685786.20087799</v>
+        <v>41018152.833603099</v>
       </c>
       <c r="I51">
-        <v>72580805.280496493</v>
+        <v>20432953.428457499</v>
       </c>
       <c r="J51">
-        <v>1.6582248447455901</v>
+        <v>2.08705840300268</v>
       </c>
     </row>
     <row r="52">
@@ -2195,29 +2375,29 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="D52"/>
       <c r="E52">
-        <v>0.99960000000000004</v>
+        <v>0.93999999999999995</v>
       </c>
       <c r="F52">
-        <v>77605748.532546297</v>
+        <v>21268001.974322598</v>
       </c>
       <c r="G52">
-        <v>0.021754673710782099</v>
+        <v>0.45393100800393299</v>
       </c>
       <c r="H52">
-        <v>125212031.43097</v>
+        <v>44449019.401127301</v>
       </c>
       <c r="I52">
-        <v>84670089.389737606</v>
+        <v>22340013.694025598</v>
       </c>
       <c r="J52">
-        <v>1.6134375841817801</v>
+        <v>2.0899480569350999</v>
       </c>
     </row>
     <row r="53">
@@ -2225,29 +2405,29 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="D53"/>
       <c r="E53">
-        <v>0.99970000000000003</v>
+        <v>0.94999999999999996</v>
       </c>
       <c r="F53">
-        <v>91957939.968504205</v>
+        <v>23634848.725564301</v>
       </c>
       <c r="G53">
-        <v>0.018076971682695599</v>
+        <v>0.41590682857477801</v>
       </c>
       <c r="H53">
-        <v>138726012.11139601</v>
+        <v>48870820.542547703</v>
       </c>
       <c r="I53">
-        <v>98472574.375177503</v>
+        <v>25559424.4485972</v>
       </c>
       <c r="J53">
-        <v>1.5085811204438699</v>
+        <v>2.0677441649832602</v>
       </c>
     </row>
     <row r="54">
@@ -2255,29 +2435,29 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="D54"/>
       <c r="E54">
-        <v>0.99980000000000002</v>
+        <v>0.95999999999999996</v>
       </c>
       <c r="F54">
-        <v>104668785.691128</v>
+        <v>27815867.130542699</v>
       </c>
       <c r="G54">
-        <v>0.01379974947707</v>
+        <v>0.37240299931798199</v>
       </c>
       <c r="H54">
-        <v>158852730.979505</v>
+        <v>54698669.5660353</v>
       </c>
       <c r="I54">
-        <v>113452036.705825</v>
+        <v>30669629.194051299</v>
       </c>
       <c r="J54">
-        <v>1.5176705254637299</v>
+        <v>1.9664556675270599</v>
       </c>
     </row>
     <row r="55">
@@ -2285,29 +2465,29 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="C55" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D55"/>
       <c r="E55">
-        <v>0.99990000000000001</v>
+        <v>0.96999999999999997</v>
       </c>
       <c r="F55">
-        <v>127995765.978286</v>
+        <v>33765907.785961002</v>
       </c>
       <c r="G55">
-        <v>0.0088718842948034907</v>
+        <v>0.32020126392638099</v>
       </c>
       <c r="H55">
-        <v>204253425.25318599</v>
+        <v>62708349.690029897</v>
       </c>
       <c r="I55">
-        <v>130824782.633119</v>
+        <v>37312519.244972602</v>
       </c>
       <c r="J55">
-        <v>1.5957826705598801</v>
+        <v>1.85714982364853</v>
       </c>
     </row>
     <row r="56">
@@ -2315,29 +2495,29 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="D56"/>
       <c r="E56">
-        <v>0.99990999999999997</v>
+        <v>0.97999999999999998</v>
       </c>
       <c r="F56">
-        <v>133902145.232187</v>
+        <v>41404612.513174303</v>
       </c>
       <c r="G56">
-        <v>0.0083036380913578695</v>
+        <v>0.256692890737512</v>
       </c>
       <c r="H56">
-        <v>212412163.32203999</v>
+        <v>75406264.9125586</v>
       </c>
       <c r="I56">
-        <v>137561774.13864201</v>
+        <v>49470977.075569198</v>
       </c>
       <c r="J56">
-        <v>1.58632382590821</v>
+        <v>1.8212044585265801</v>
       </c>
     </row>
     <row r="57">
@@ -2345,29 +2525,29 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C57" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="D57"/>
       <c r="E57">
-        <v>0.99992000000000003</v>
+        <v>0.98999999999999999</v>
       </c>
       <c r="F57">
-        <v>141561213.41158301</v>
+        <v>57978942.898254603</v>
       </c>
       <c r="G57">
-        <v>0.0077061293141966001</v>
+        <v>0.17249001894786201</v>
       </c>
       <c r="H57">
-        <v>221768461.96991599</v>
+        <v>101341552.749548</v>
       </c>
       <c r="I57">
-        <v>146357890.25556099</v>
+        <v>59996440.039094903</v>
       </c>
       <c r="J57">
-        <v>1.56659056972854</v>
+        <v>1.7479027330213499</v>
       </c>
     </row>
     <row r="58">
@@ -2375,29 +2555,29 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C58" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="D58"/>
       <c r="E58">
-        <v>0.99992999999999999</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="F58">
-        <v>151619530.21568099</v>
+        <v>62388892.961043604</v>
       </c>
       <c r="G58">
-        <v>0.0070704140176829598</v>
+        <v>0.162278228425249</v>
       </c>
       <c r="H58">
-        <v>232541400.78632</v>
+        <v>105935454.16182099</v>
       </c>
       <c r="I58">
-        <v>157967446.29958001</v>
+        <v>65271195.553858504</v>
       </c>
       <c r="J58">
-        <v>1.5337166686608701</v>
+        <v>1.6979857973753101</v>
       </c>
     </row>
     <row r="59">
@@ -2405,29 +2585,29 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C59" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="D59"/>
       <c r="E59">
-        <v>0.99994000000000005</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="F59">
-        <v>164944137.03981301</v>
+        <v>68114375.132177606</v>
       </c>
       <c r="G59">
-        <v>0.0063842718371187801</v>
+        <v>0.15116863966094499</v>
       </c>
       <c r="H59">
-        <v>244970393.200708</v>
+        <v>111018486.48781601</v>
       </c>
       <c r="I59">
-        <v>173363663.32901001</v>
+        <v>69787560.950707495</v>
       </c>
       <c r="J59">
-        <v>1.48517187453336</v>
+        <v>1.6298833582835</v>
       </c>
     </row>
     <row r="60">
@@ -2435,29 +2615,29 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="D60"/>
       <c r="E60">
-        <v>0.99995000000000001</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="F60">
-        <v>182595496.37189901</v>
+        <v>70604141.248009607</v>
       </c>
       <c r="G60">
-        <v>0.0056312551569422196</v>
+        <v>0.13929033566410201</v>
       </c>
       <c r="H60">
-        <v>259291739.175143</v>
+        <v>116908618.707403</v>
       </c>
       <c r="I60">
-        <v>193577896.542218</v>
+        <v>70786143.210288897</v>
       </c>
       <c r="J60">
-        <v>1.42003359517167</v>
+        <v>1.65583231579491</v>
       </c>
     </row>
     <row r="61">
@@ -2465,29 +2645,29 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="D61"/>
       <c r="E61">
-        <v>0.99995999999999996</v>
+        <v>0.99399999999999999</v>
       </c>
       <c r="F61">
-        <v>205447134.951307</v>
+        <v>71328847.723664105</v>
       </c>
       <c r="G61">
-        <v>0.0047904366012594896</v>
+        <v>0.12724206636852101</v>
       </c>
       <c r="H61">
-        <v>275720199.83328402</v>
+        <v>124595697.95692199</v>
       </c>
       <c r="I61">
-        <v>218716028.06385401</v>
+        <v>74092147.450265795</v>
       </c>
       <c r="J61">
-        <v>1.3420493787787899</v>
+        <v>1.74677850453465</v>
       </c>
     </row>
     <row r="62">
@@ -2495,29 +2675,29 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C62" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="D62"/>
       <c r="E62">
-        <v>0.99997000000000003</v>
+        <v>0.995</v>
       </c>
       <c r="F62">
-        <v>232204561.19226301</v>
+        <v>78640475.603073195</v>
       </c>
       <c r="G62">
-        <v>0.00384042888805334</v>
+        <v>0.114631093306791</v>
       </c>
       <c r="H62">
-        <v>294721590.422948</v>
+        <v>134696408.05825299</v>
       </c>
       <c r="I62">
-        <v>245140618.30796701</v>
+        <v>86574330.573227897</v>
       </c>
       <c r="J62">
-        <v>1.26923256334712</v>
+        <v>1.7128127344767601</v>
       </c>
     </row>
     <row r="63">
@@ -2525,29 +2705,29 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D63"/>
       <c r="E63">
-        <v>0.99997999999999998</v>
+        <v>0.996</v>
       </c>
       <c r="F63">
-        <v>259213881.24159199</v>
+        <v>93846525.969807997</v>
       </c>
       <c r="G63">
-        <v>0.00277564419770921</v>
+        <v>0.099895570201199796</v>
       </c>
       <c r="H63">
-        <v>319512076.480573</v>
+        <v>146726927.42950901</v>
       </c>
       <c r="I63">
-        <v>278635751.02647001</v>
+        <v>97895247.129780397</v>
       </c>
       <c r="J63">
-        <v>1.23261946833311</v>
+        <v>1.56347745335521</v>
       </c>
     </row>
     <row r="64">
@@ -2555,29 +2735,629 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="D64"/>
       <c r="E64">
+        <v>0.997</v>
+      </c>
+      <c r="F64">
+        <v>101943968.289756</v>
+      </c>
+      <c r="G64">
+        <v>0.083233152294447499</v>
+      </c>
+      <c r="H64">
+        <v>163004154.19608501</v>
+      </c>
+      <c r="I64">
+        <v>105992689.44972999</v>
+      </c>
+      <c r="J64">
+        <v>1.59895829964926</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>148</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65">
+        <v>0.998</v>
+      </c>
+      <c r="F65">
+        <v>110041410.609703</v>
+      </c>
+      <c r="G65">
+        <v>0.065192496200789596</v>
+      </c>
+      <c r="H65">
+        <v>191509886.56926301</v>
+      </c>
+      <c r="I65">
+        <v>115371753.951094</v>
+      </c>
+      <c r="J65">
+        <v>1.7403437988314601</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66"/>
+      <c r="E66">
+        <v>0.999</v>
+      </c>
+      <c r="F66">
+        <v>140096100.80416399</v>
+      </c>
+      <c r="G66">
+        <v>0.0455554613565992</v>
+      </c>
+      <c r="H66">
+        <v>267648019.18743199</v>
+      </c>
+      <c r="I66">
+        <v>149905474.91015601</v>
+      </c>
+      <c r="J66">
+        <v>1.91046016021222</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="F67">
+        <v>159714849.016157</v>
+      </c>
+      <c r="G67">
+        <v>0.043003971123215697</v>
+      </c>
+      <c r="H67">
+        <v>280730524.10712701</v>
+      </c>
+      <c r="I67">
+        <v>169524223.122159</v>
+      </c>
+      <c r="J67">
+        <v>1.75769833447815</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+      <c r="C68" t="s">
+        <v>235</v>
+      </c>
+      <c r="D68"/>
+      <c r="E68">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="F68">
+        <v>179333597.228149</v>
+      </c>
+      <c r="G68">
+        <v>0.040118556832127797</v>
+      </c>
+      <c r="H68">
+        <v>294631311.73024702</v>
+      </c>
+      <c r="I68">
+        <v>189142971.33414301</v>
+      </c>
+      <c r="J68">
+        <v>1.6429231124796699</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+      <c r="C69" t="s">
+        <v>236</v>
+      </c>
+      <c r="D69"/>
+      <c r="E69">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="F69">
+        <v>198952345.44014099</v>
+      </c>
+      <c r="G69">
+        <v>0.036899218483335501</v>
+      </c>
+      <c r="H69">
+        <v>309701074.64397299</v>
+      </c>
+      <c r="I69">
+        <v>208761719.54613301</v>
+      </c>
+      <c r="J69">
+        <v>1.55665958075952</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" t="s">
+        <v>237</v>
+      </c>
+      <c r="D70"/>
+      <c r="E70">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="F70">
+        <v>218571093.652134</v>
+      </c>
+      <c r="G70">
+        <v>0.033345956076838698</v>
+      </c>
+      <c r="H70">
+        <v>326524300.49361002</v>
+      </c>
+      <c r="I70">
+        <v>228380467.75813001</v>
+      </c>
+      <c r="J70">
+        <v>1.49390431752741</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71"/>
+      <c r="E71">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="F71">
+        <v>238189841.86412701</v>
+      </c>
+      <c r="G71">
+        <v>0.0294587696126376</v>
+      </c>
+      <c r="H71">
+        <v>346153067.04070097</v>
+      </c>
+      <c r="I71">
+        <v>247284971.02325201</v>
+      </c>
+      <c r="J71">
+        <v>1.4532654471392701</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="F72">
+        <v>257140748.12440801</v>
+      </c>
+      <c r="G72">
+        <v>0.025249816011666801</v>
+      </c>
+      <c r="H72">
+        <v>370870091.045057</v>
+      </c>
+      <c r="I72">
+        <v>269282428.84137201</v>
+      </c>
+      <c r="J72">
+        <v>1.44228440552574</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73"/>
+      <c r="E73">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="F73">
+        <v>282953744.13715798</v>
+      </c>
+      <c r="G73">
+        <v>0.020666451143752099</v>
+      </c>
+      <c r="H73">
+        <v>404732645.11299098</v>
+      </c>
+      <c r="I73">
+        <v>301062623.66210502</v>
+      </c>
+      <c r="J73">
+        <v>1.4303844833267201</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>241</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="F74">
+        <v>322466916.19418502</v>
+      </c>
+      <c r="G74">
+        <v>0.015542166361151299</v>
+      </c>
+      <c r="H74">
+        <v>456567655.838431</v>
+      </c>
+      <c r="I74">
+        <v>355519794.93136901</v>
+      </c>
+      <c r="J74">
+        <v>1.4158589080297801</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="F75">
+        <v>399494420.54185301</v>
+      </c>
+      <c r="G75">
+        <v>0.0094909845408373793</v>
+      </c>
+      <c r="H75">
+        <v>557615516.74549401</v>
+      </c>
+      <c r="I75">
+        <v>405784628.78829098</v>
+      </c>
+      <c r="J75">
+        <v>1.39580301519399</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76"/>
+      <c r="E76">
+        <v>0.99990999999999997</v>
+      </c>
+      <c r="F76">
+        <v>412354283.050125</v>
+      </c>
+      <c r="G76">
+        <v>0.0088003122903233203</v>
+      </c>
+      <c r="H76">
+        <v>574485615.40732598</v>
+      </c>
+      <c r="I76">
+        <v>419556276.18490797</v>
+      </c>
+      <c r="J76">
+        <v>1.39318454790366</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77">
+        <v>0.99992000000000003</v>
+      </c>
+      <c r="F77">
+        <v>427116867.14065301</v>
+      </c>
+      <c r="G77">
+        <v>0.0080861997859752507</v>
+      </c>
+      <c r="H77">
+        <v>593851782.81001794</v>
+      </c>
+      <c r="I77">
+        <v>435501473.85158801</v>
+      </c>
+      <c r="J77">
+        <v>1.3903730535990699</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>161</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78"/>
+      <c r="E78">
+        <v>0.99992999999999999</v>
+      </c>
+      <c r="F78">
+        <v>444360929.22927499</v>
+      </c>
+      <c r="G78">
+        <v>0.00734494750160749</v>
+      </c>
+      <c r="H78">
+        <v>616473255.51850605</v>
+      </c>
+      <c r="I78">
+        <v>454333312.16255802</v>
+      </c>
+      <c r="J78">
+        <v>1.38732551619188</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" t="s">
+        <v>246</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79">
+        <v>0.99994000000000005</v>
+      </c>
+      <c r="F79">
+        <v>464960466.71511102</v>
+      </c>
+      <c r="G79">
+        <v>0.0065716421841245098</v>
+      </c>
+      <c r="H79">
+        <v>643496579.41101503</v>
+      </c>
+      <c r="I79">
+        <v>477163249.61054599</v>
+      </c>
+      <c r="J79">
+        <v>1.38398127470329</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80"/>
+      <c r="E80">
+        <v>0.99995000000000001</v>
+      </c>
+      <c r="F80">
+        <v>490319224.77183098</v>
+      </c>
+      <c r="G80">
+        <v>0.0057594788046025202</v>
+      </c>
+      <c r="H80">
+        <v>676763245.37133801</v>
+      </c>
+      <c r="I80">
+        <v>505855370.36086202</v>
+      </c>
+      <c r="J80">
+        <v>1.3802502761058799</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81"/>
+      <c r="E81">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="F81">
+        <v>522889451.80872798</v>
+      </c>
+      <c r="G81">
+        <v>0.0048984795397336196</v>
+      </c>
+      <c r="H81">
+        <v>719490214.12370801</v>
+      </c>
+      <c r="I81">
+        <v>543878438.67369497</v>
+      </c>
+      <c r="J81">
+        <v>1.3759891534145801</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="s">
+        <v>249</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82">
+        <v>0.99997000000000003</v>
+      </c>
+      <c r="F82">
+        <v>567511662.43068099</v>
+      </c>
+      <c r="G82">
+        <v>0.0039727625002130302</v>
+      </c>
+      <c r="H82">
+        <v>778027472.60661495</v>
+      </c>
+      <c r="I82">
+        <v>598815980.45331597</v>
+      </c>
+      <c r="J82">
+        <v>1.3709453463463399</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>250</v>
+      </c>
+      <c r="D83"/>
+      <c r="E83">
+        <v>0.99997999999999998</v>
+      </c>
+      <c r="F83">
+        <v>635816987.58628297</v>
+      </c>
+      <c r="G83">
+        <v>0.0029535381345610402</v>
+      </c>
+      <c r="H83">
+        <v>867633218.68377995</v>
+      </c>
+      <c r="I83">
+        <v>692954582.77064896</v>
+      </c>
+      <c r="J83">
+        <v>1.3645958438096</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84" t="s">
+        <v>251</v>
+      </c>
+      <c r="D84"/>
+      <c r="E84">
         <v>0.99999000000000005</v>
       </c>
-      <c r="F64">
-        <v>302722865.712026</v>
-      </c>
-      <c r="G64">
-        <v>0.0015653711555670101</v>
-      </c>
-      <c r="H64">
-        <v>360388401.93423998</v>
-      </c>
-      <c r="I64">
-        <v>360388401.93423402</v>
-      </c>
-      <c r="J64">
-        <v>1.19048952938055</v>
+      <c r="F84">
+        <v>768972299.00319004</v>
+      </c>
+      <c r="G84">
+        <v>0.00177408364754549</v>
+      </c>
+      <c r="H84">
+        <v>1042311854.59495</v>
+      </c>
+      <c r="I84">
+        <v>1042311854.59495</v>
+      </c>
+      <c r="J84">
+        <v>1.3554608611338601</v>
       </c>
     </row>
   </sheetData>
